--- a/Parallel_Prog/laba3_POSIX/tests222.xlsx
+++ b/Parallel_Prog/laba3_POSIX/tests222.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gbikm\OneDrive\Рабочий стол\study\3_2 курс\Parallel_Prog\laba3_POSIX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RSOTMBOBIK\Desktop\study\3_2\Parallel_Prog\laba3_POSIX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23961A1E-28D5-4843-B003-A8B4DCC0DFCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF436848-8C62-4039-A82C-498D768CFF8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="16">
   <si>
     <t>Номер теста</t>
   </si>
@@ -230,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -257,28 +257,19 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -299,9 +290,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -938,7 +940,1129 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>res!$B$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2 th</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>res!$A$44:$A$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33554432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>res!$B$44:$B$53</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.1730799999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3830499999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.21505</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2072700000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3185800000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.35039</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.26088</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2761800000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.20495</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2461100000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2D38-47B9-BB46-14D23A58EB50}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>res!$C$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4 th</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>res!$A$44:$A$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33554432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>res!$C$44:$C$53</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.28932</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2984199999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.33511</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.23356</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1863699999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3268800000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1942699999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3193299999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2786599999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1906000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2D38-47B9-BB46-14D23A58EB50}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>res!$D$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6 th</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>res!$A$44:$A$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33554432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>res!$D$44:$D$53</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.19838</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2357800000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2140500000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.16825</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.23481</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2927299999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.23271</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3080000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2760400000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1650799999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2D38-47B9-BB46-14D23A58EB50}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>res!$E$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8 th</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>res!$A$44:$A$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33554432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>res!$E$44:$E$53</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.2053799999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2579800000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2061500000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5262</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6317600000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4769000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6351500000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.47204</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.36477</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2915399999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2D38-47B9-BB46-14D23A58EB50}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1477263983"/>
+        <c:axId val="1179033807"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1477263983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1179033807"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1179033807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1477263983"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>line</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2'!$C$3:$D$12</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>65536,0000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131072,0000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>262144,0000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>524288,0000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1048576,0000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2097152,0000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4194304,0000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8388608,0000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16777216,0000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33554432,0000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2'!$O$3:$O$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-6F0E-4CB4-8064-96FC7C6EFF9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>posix</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'2'!$K$3:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.1730799999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3830499999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.21505</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2072700000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3185800000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.35039</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.26088</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2761800000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.20495</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2461100000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-6F0E-4CB4-8064-96FC7C6EFF9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>omp</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'2'!$M$3:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.25264</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.40967</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2796000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.33693</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3997200000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4175199999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.34615</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.32311</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.26448</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2948299999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-6F0E-4CB4-8064-96FC7C6EFF9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1177338335"/>
+        <c:axId val="1177340735"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1177338335"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1177340735"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1177340735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1177338335"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -1469,7 +2593,460 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>line</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'4'!$C$3:$D$12</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>65536,0000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131072,0000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>262144,0000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>524288,0000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1048576,0000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2097152,0000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4194304,0000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8388608,0000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16777216,0000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33554432,0000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'4'!$L$3:$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-37E9-497F-9161-BD93C377C3C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>posix</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'4'!$H$3:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.28932</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2984199999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.33511</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.23356</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1863699999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3268800000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1942699999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3193299999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2786599999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1906000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-37E9-497F-9161-BD93C377C3C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>omp</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'4'!$J$3:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.3059000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3364</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.26492</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3106500000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.36229</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.41073</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2819400000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3301499999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4153500000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2326900000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-37E9-497F-9161-BD93C377C3C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1441393231"/>
+        <c:axId val="1441399951"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1441393231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1441399951"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1441399951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1441393231"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -2000,7 +3577,460 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>line</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'6'!$C$3:$D$12</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>65536,0000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131072,0000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>262144,0000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>524288,0000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1048576,0000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2097152,0000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4194304,0000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8388608,0000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16777216,0000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33554432,0000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'6'!$L$3:$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F5E2-4C3E-A42E-190153175D3F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>posix</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'6'!$H$3:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.19838</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2357800000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2140500000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.16825</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.23481</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2927299999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.23271</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3080000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2760400000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1650799999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-F5E2-4C3E-A42E-190153175D3F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>omp</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'6'!$J$3:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.2237</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2639</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2221500000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2624</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3871899999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.40235</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3134300000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.33765</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.29843</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.21475</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-F5E2-4C3E-A42E-190153175D3F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1179019407"/>
+        <c:axId val="1179021807"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1179019407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1179021807"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1179021807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1179019407"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -2531,7 +4561,460 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>line</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'8'!$C$3:$D$12</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>65536,0000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131072,0000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>262144,0000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>524288,0000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1048576,0000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2097152,0000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4194304,0000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8388608,0000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16777216,0000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33554432,0000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'8'!$L$3:$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-EE94-47B4-B3F6-CD9595AC2191}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>posix</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'8'!$H$3:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.2053799999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2579800000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2061500000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5262</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6317600000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4769000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6351500000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.47204</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.36477</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2915399999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-EE94-47B4-B3F6-CD9595AC2191}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>omp</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'8'!$J$3:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.04419</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.15846</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2099500000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.37927</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4916199999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2944899999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.34263</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.26037</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.21773</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1714800000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-EE94-47B4-B3F6-CD9595AC2191}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1477262543"/>
+        <c:axId val="1477244783"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1477262543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1477244783"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1477244783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1477262543"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -3205,6 +5688,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3365,6 +5888,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3881,7 +6564,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4397,7 +7080,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4913,7 +7596,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5429,7 +8112,2587 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5952,13 +11215,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>236220</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>7621</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>438979</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>165653</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>22413</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5978,6 +11241,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F68C84B-6EC5-CBF2-793F-B8D215E5EEF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6024,6 +11323,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>377337</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>13188</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>84260</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>89388</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2267A8AF-1DFE-D881-1789-FC0105DCA127}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6060,6 +11395,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>165651</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>447260</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{468AE50F-9789-24DA-7768-7767AA75947A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6106,6 +11477,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>421298</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>49824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>128221</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>126024</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F74B4555-7D76-6B61-3C2C-1796599A3E41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6119,10 +11526,10 @@
       <xdr:rowOff>128586</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>231913</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>16565</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>448235</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6142,6 +11549,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BBBA695-5B2A-6892-8769-9BF4842D7720}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6415,383 +11858,413 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="L5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="12"/>
       <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10"/>
+      <c r="D1" s="12"/>
       <c r="E1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10" t="s">
+      <c r="F1" s="12"/>
+      <c r="G1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="10"/>
+      <c r="H1" s="12"/>
       <c r="I1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="10"/>
+      <c r="J1" s="12"/>
       <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="10"/>
+      <c r="L1" s="12"/>
       <c r="M1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="10"/>
+      <c r="N1" s="12"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="12">
+      <c r="B3" s="12"/>
+      <c r="C3" s="10">
         <f>2^16</f>
         <v>65536</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12">
+      <c r="D3" s="10"/>
+      <c r="E3" s="10">
         <v>0.200132</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12">
+      <c r="F3" s="10"/>
+      <c r="G3" s="10">
         <v>0.18742</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12">
+      <c r="H3" s="10"/>
+      <c r="I3" s="10">
         <v>0.23477000000000001</v>
       </c>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12">
+      <c r="J3" s="10"/>
+      <c r="K3" s="24">
         <v>1.1730799999999999</v>
       </c>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12">
+      <c r="L3" s="24"/>
+      <c r="M3" s="24">
         <v>1.25264</v>
       </c>
-      <c r="N3" s="12"/>
+      <c r="N3" s="24"/>
+      <c r="O3">
+        <v>1</v>
+      </c>
       <c r="Q3" s="7">
         <f>SUM(K3:L12)/10</f>
         <v>1.2635539999999998</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="12">
         <v>2</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="12">
+      <c r="B4" s="12"/>
+      <c r="C4" s="10">
         <f>2^17</f>
         <v>131072</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12">
+      <c r="D4" s="10"/>
+      <c r="E4" s="10">
         <v>0.34025100000000003</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12">
+      <c r="F4" s="10"/>
+      <c r="G4" s="10">
         <v>0.33382600000000001</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12">
+      <c r="H4" s="10"/>
+      <c r="I4" s="10">
         <v>0.470584</v>
       </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12">
+      <c r="J4" s="10"/>
+      <c r="K4" s="24">
         <v>1.3830499999999999</v>
       </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12">
+      <c r="L4" s="24"/>
+      <c r="M4" s="24">
         <v>1.40967</v>
       </c>
-      <c r="N4" s="12"/>
+      <c r="N4" s="24"/>
+      <c r="O4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="12">
         <v>3</v>
       </c>
-      <c r="B5" s="10"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="13">
         <f>2^18</f>
         <v>262144</v>
       </c>
       <c r="D5" s="14"/>
-      <c r="E5" s="12">
+      <c r="E5" s="10">
         <v>0.78874</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12">
+      <c r="F5" s="10"/>
+      <c r="G5" s="10">
         <v>0.74895</v>
       </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12">
+      <c r="H5" s="10"/>
+      <c r="I5" s="10">
         <v>0.95835400000000004</v>
       </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12">
+      <c r="J5" s="10"/>
+      <c r="K5" s="24">
         <v>1.21505</v>
       </c>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12">
+      <c r="L5" s="24"/>
+      <c r="M5" s="24">
         <v>1.2796000000000001</v>
       </c>
-      <c r="N5" s="12"/>
+      <c r="N5" s="24"/>
+      <c r="O5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="A6" s="12">
         <v>4</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="13">
         <f>2^19</f>
         <v>524288</v>
       </c>
       <c r="D6" s="14"/>
-      <c r="E6" s="12">
+      <c r="E6" s="10">
         <v>1.63913</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12">
+      <c r="F6" s="10"/>
+      <c r="G6" s="10">
         <v>1.48017</v>
       </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12">
+      <c r="H6" s="10"/>
+      <c r="I6" s="10">
         <v>1.97888</v>
       </c>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12">
+      <c r="J6" s="10"/>
+      <c r="K6" s="24">
         <v>1.2072700000000001</v>
       </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12">
+      <c r="L6" s="24"/>
+      <c r="M6" s="24">
         <v>1.33693</v>
       </c>
-      <c r="N6" s="12"/>
+      <c r="N6" s="24"/>
+      <c r="O6">
+        <v>1</v>
+      </c>
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="12">
         <v>5</v>
       </c>
-      <c r="B7" s="10"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="13">
         <f>2^20</f>
         <v>1048576</v>
       </c>
       <c r="D7" s="14"/>
-      <c r="E7" s="12">
+      <c r="E7" s="10">
         <v>3.1739999999999999</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12">
+      <c r="F7" s="10"/>
+      <c r="G7" s="10">
         <v>2.9900199999999999</v>
       </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12">
+      <c r="H7" s="10"/>
+      <c r="I7" s="10">
         <v>4.1851799999999999</v>
       </c>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12">
+      <c r="J7" s="10"/>
+      <c r="K7" s="24">
         <v>1.3185800000000001</v>
       </c>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12">
+      <c r="L7" s="24"/>
+      <c r="M7" s="24">
         <v>1.3997200000000001</v>
       </c>
-      <c r="N7" s="12"/>
+      <c r="N7" s="24"/>
+      <c r="O7">
+        <v>1</v>
+      </c>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="A8" s="12">
         <v>6</v>
       </c>
-      <c r="B8" s="10"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="13">
         <f>2^21</f>
         <v>2097152</v>
       </c>
       <c r="D8" s="14"/>
-      <c r="E8" s="12">
+      <c r="E8" s="10">
         <v>6.6181000000000001</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12">
+      <c r="F8" s="10"/>
+      <c r="G8" s="10">
         <v>6.3047199999999997</v>
       </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12">
+      <c r="H8" s="10"/>
+      <c r="I8" s="10">
         <v>8.93703</v>
       </c>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12">
+      <c r="J8" s="10"/>
+      <c r="K8" s="24">
         <v>1.35039</v>
       </c>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12">
+      <c r="L8" s="24"/>
+      <c r="M8" s="24">
         <v>1.4175199999999999</v>
       </c>
-      <c r="N8" s="12"/>
+      <c r="N8" s="24"/>
+      <c r="O8">
+        <v>1</v>
+      </c>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="A9" s="12">
         <v>7</v>
       </c>
-      <c r="B9" s="10"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="13">
         <f>2^22</f>
         <v>4194304</v>
       </c>
       <c r="D9" s="14"/>
-      <c r="E9" s="12">
+      <c r="E9" s="10">
         <v>14.0077</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12">
+      <c r="F9" s="10"/>
+      <c r="G9" s="10">
         <v>13.1204</v>
       </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12">
+      <c r="H9" s="10"/>
+      <c r="I9" s="10">
         <v>17.661999999999999</v>
       </c>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12">
+      <c r="J9" s="10"/>
+      <c r="K9" s="24">
         <v>1.26088</v>
       </c>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12">
+      <c r="L9" s="24"/>
+      <c r="M9" s="24">
         <v>1.34615</v>
       </c>
-      <c r="N9" s="12"/>
+      <c r="N9" s="24"/>
+      <c r="O9">
+        <v>1</v>
+      </c>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="A10" s="12">
         <v>8</v>
       </c>
-      <c r="B10" s="10"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="13">
         <f>2^23</f>
         <v>8388608</v>
       </c>
       <c r="D10" s="14"/>
-      <c r="E10" s="12">
+      <c r="E10" s="10">
         <v>29.6784</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12">
+      <c r="F10" s="10"/>
+      <c r="G10" s="10">
         <v>28.625699999999998</v>
       </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12">
+      <c r="H10" s="10"/>
+      <c r="I10" s="10">
         <v>37.875</v>
       </c>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12">
+      <c r="J10" s="10"/>
+      <c r="K10" s="24">
         <v>1.2761800000000001</v>
       </c>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12">
+      <c r="L10" s="24"/>
+      <c r="M10" s="24">
         <v>1.32311</v>
       </c>
-      <c r="N10" s="12"/>
+      <c r="N10" s="24"/>
+      <c r="O10">
+        <v>1</v>
+      </c>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+      <c r="A11" s="12">
         <v>9</v>
       </c>
-      <c r="B11" s="10"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="13">
         <f>2^24</f>
         <v>16777216</v>
       </c>
       <c r="D11" s="14"/>
-      <c r="E11" s="12">
+      <c r="E11" s="10">
         <v>66.368799999999993</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12">
+      <c r="F11" s="10"/>
+      <c r="G11" s="10">
         <v>63.244</v>
       </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12">
+      <c r="H11" s="10"/>
+      <c r="I11" s="10">
         <v>79.970799999999997</v>
       </c>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12">
+      <c r="J11" s="10"/>
+      <c r="K11" s="24">
         <v>1.20495</v>
       </c>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12">
+      <c r="L11" s="24"/>
+      <c r="M11" s="24">
         <v>1.26448</v>
       </c>
-      <c r="N11" s="12"/>
+      <c r="N11" s="24"/>
+      <c r="O11">
+        <v>1</v>
+      </c>
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+      <c r="A12" s="12">
         <v>10</v>
       </c>
-      <c r="B12" s="10"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="13">
         <f>2^25</f>
         <v>33554432</v>
       </c>
       <c r="D12" s="14"/>
-      <c r="E12" s="12">
+      <c r="E12" s="10">
         <v>136.71</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12">
+      <c r="F12" s="10"/>
+      <c r="G12" s="10">
         <v>131.566</v>
       </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12">
+      <c r="H12" s="10"/>
+      <c r="I12" s="10">
         <v>170.35599999999999</v>
       </c>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12">
+      <c r="J12" s="10"/>
+      <c r="K12" s="24">
         <v>1.2461100000000001</v>
       </c>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12">
+      <c r="L12" s="24"/>
+      <c r="M12" s="24">
         <v>1.2948299999999999</v>
       </c>
-      <c r="N12" s="12"/>
+      <c r="N12" s="24"/>
+      <c r="O12">
+        <v>1</v>
+      </c>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
     </row>
@@ -7023,63 +12496,12 @@
       <c r="H25" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K1:L2"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
+  <mergeCells count="57">
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
     <mergeCell ref="C1:D2"/>
     <mergeCell ref="E1:F2"/>
     <mergeCell ref="I1:J2"/>
@@ -7096,11 +12518,42 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="G1:H2"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="K1:L2"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7111,63 +12564,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{921B4E71-FA55-4206-A07A-3022D3565ED7}">
   <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="K1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="12"/>
       <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="18" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="10"/>
+      <c r="I1" s="12"/>
       <c r="J1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="10"/>
+      <c r="K1" s="12"/>
       <c r="M1" s="8"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="12">
+      <c r="B3" s="12"/>
+      <c r="C3" s="10">
         <f>2^16</f>
         <v>65536</v>
       </c>
-      <c r="D3" s="12"/>
+      <c r="D3" s="10"/>
       <c r="E3" s="2">
         <v>0.20966599999999999</v>
       </c>
@@ -7177,28 +12630,30 @@
       <c r="G3" s="6">
         <v>0.27032699999999998</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="25">
         <v>1.28932</v>
       </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="13">
+      <c r="I3" s="26"/>
+      <c r="J3" s="27">
         <v>1.3059000000000001</v>
       </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="7"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="7">
+        <v>1</v>
+      </c>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="12">
         <v>2</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="12">
+      <c r="B4" s="12"/>
+      <c r="C4" s="10">
         <f>2^17</f>
         <v>131072</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="10"/>
       <c r="E4" s="2">
         <v>0.34264</v>
       </c>
@@ -7208,23 +12663,25 @@
       <c r="G4" s="6">
         <v>0.44489099999999998</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="25">
         <v>1.2984199999999999</v>
       </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="13">
+      <c r="I4" s="26"/>
+      <c r="J4" s="27">
         <v>1.3364</v>
       </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="7"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="7">
+        <v>1</v>
+      </c>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="12">
         <v>3</v>
       </c>
-      <c r="B5" s="10"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="13">
         <f>2^18</f>
         <v>262144</v>
@@ -7239,23 +12696,25 @@
       <c r="G5" s="6">
         <v>0.97204299999999999</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="25">
         <v>1.33511</v>
       </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="13">
+      <c r="I5" s="26"/>
+      <c r="J5" s="27">
         <v>1.26492</v>
       </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="7"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="7">
+        <v>1</v>
+      </c>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="A6" s="12">
         <v>4</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="13">
         <f>2^19</f>
         <v>524288</v>
@@ -7270,25 +12729,27 @@
       <c r="G6" s="6">
         <v>2.0101900000000001</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="25">
         <v>1.23356</v>
       </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="13">
+      <c r="I6" s="26"/>
+      <c r="J6" s="27">
         <v>1.3106500000000001</v>
       </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="7"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="7">
+        <v>1</v>
+      </c>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
       <c r="Q6" s="8"/>
       <c r="S6" s="8"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="12">
         <v>5</v>
       </c>
-      <c r="B7" s="10"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="13">
         <f>2^20</f>
         <v>1048576</v>
@@ -7303,23 +12764,25 @@
       <c r="G7" s="6">
         <v>4.1894499999999999</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="25">
         <v>1.1863699999999999</v>
       </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="13">
+      <c r="I7" s="26"/>
+      <c r="J7" s="27">
         <v>1.36229</v>
       </c>
-      <c r="K7" s="14"/>
-      <c r="L7" s="7"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="7">
+        <v>1</v>
+      </c>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="A8" s="12">
         <v>6</v>
       </c>
-      <c r="B8" s="10"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="13">
         <f>2^21</f>
         <v>2097152</v>
@@ -7334,15 +12797,17 @@
       <c r="G8" s="6">
         <v>8.9110999999999994</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="25">
         <v>1.3268800000000001</v>
       </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="13">
+      <c r="I8" s="26"/>
+      <c r="J8" s="27">
         <v>1.41073</v>
       </c>
-      <c r="K8" s="14"/>
-      <c r="L8" s="7"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="7">
+        <v>1</v>
+      </c>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="Q8" s="7"/>
@@ -7351,10 +12816,10 @@
       <c r="T8" s="7"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="A9" s="12">
         <v>7</v>
       </c>
-      <c r="B9" s="10"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="13">
         <f>2^22</f>
         <v>4194304</v>
@@ -7369,15 +12834,17 @@
       <c r="G9" s="6">
         <v>18.240200000000002</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="25">
         <v>1.1942699999999999</v>
       </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="13">
+      <c r="I9" s="26"/>
+      <c r="J9" s="27">
         <v>1.2819400000000001</v>
       </c>
-      <c r="K9" s="14"/>
-      <c r="L9" s="7"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="7">
+        <v>1</v>
+      </c>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
       <c r="Q9" s="7"/>
@@ -7386,10 +12853,10 @@
       <c r="T9" s="7"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="A10" s="12">
         <v>8</v>
       </c>
-      <c r="B10" s="10"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="13">
         <f>2^23</f>
         <v>8388608</v>
@@ -7404,15 +12871,17 @@
       <c r="G10" s="6">
         <v>38.2562</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="25">
         <v>1.3193299999999999</v>
       </c>
-      <c r="I10" s="14"/>
-      <c r="J10" s="13">
+      <c r="I10" s="26"/>
+      <c r="J10" s="27">
         <v>1.3301499999999999</v>
       </c>
-      <c r="K10" s="14"/>
-      <c r="L10" s="7"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="7">
+        <v>1</v>
+      </c>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
       <c r="Q10" s="7"/>
@@ -7421,10 +12890,10 @@
       <c r="T10" s="7"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+      <c r="A11" s="12">
         <v>9</v>
       </c>
-      <c r="B11" s="10"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="13">
         <f>2^24</f>
         <v>16777216</v>
@@ -7439,15 +12908,17 @@
       <c r="G11" s="6">
         <v>79.254900000000006</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="25">
         <v>1.2786599999999999</v>
       </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="13">
+      <c r="I11" s="26"/>
+      <c r="J11" s="27">
         <v>1.4153500000000001</v>
       </c>
-      <c r="K11" s="14"/>
-      <c r="L11" s="7"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="7">
+        <v>1</v>
+      </c>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
       <c r="Q11" s="7"/>
@@ -7456,10 +12927,10 @@
       <c r="T11" s="7"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+      <c r="A12" s="12">
         <v>10</v>
       </c>
-      <c r="B12" s="10"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="13">
         <f>2^25</f>
         <v>33554432</v>
@@ -7474,15 +12945,17 @@
       <c r="G12" s="6">
         <v>177.19399999999999</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="25">
         <v>1.1906000000000001</v>
       </c>
-      <c r="I12" s="14"/>
-      <c r="J12" s="13">
+      <c r="I12" s="26"/>
+      <c r="J12" s="27">
         <v>1.2326900000000001</v>
       </c>
-      <c r="K12" s="14"/>
-      <c r="L12" s="7"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="7">
+        <v>1</v>
+      </c>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="Q12" s="7"/>
@@ -7678,22 +13151,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="47">
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
+  <mergeCells count="27">
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:D2"/>
     <mergeCell ref="A12:B12"/>
@@ -7708,24 +13166,19 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:I2"/>
     <mergeCell ref="J1:K2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7734,64 +13187,64 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B61B0CB7-578D-4707-B33E-A80C3F600599}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="12"/>
       <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="24" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="12" t="s">
         <v>11</v>
       </c>
       <c r="H1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="10"/>
+      <c r="I1" s="12"/>
       <c r="J1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="10"/>
+      <c r="K1" s="12"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="12">
+      <c r="B3" s="12"/>
+      <c r="C3" s="10">
         <f>2^16</f>
         <v>65536</v>
       </c>
-      <c r="D3" s="12"/>
+      <c r="D3" s="10"/>
       <c r="E3" s="2">
         <v>0.22074199999999999</v>
       </c>
@@ -7801,25 +13254,28 @@
       <c r="G3" s="2">
         <v>0.26453199999999999</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="24">
         <v>1.19838</v>
       </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12">
+      <c r="I3" s="24"/>
+      <c r="J3" s="24">
         <v>1.2237</v>
       </c>
-      <c r="K3" s="12"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="28">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
         <v>2</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="12">
+      <c r="B4" s="12"/>
+      <c r="C4" s="10">
         <f>2^17</f>
         <v>131072</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="10"/>
       <c r="E4" s="2">
         <v>0.412908</v>
       </c>
@@ -7829,25 +13285,28 @@
       <c r="G4" s="2">
         <v>0.51026499999999997</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="24">
         <v>1.2357800000000001</v>
       </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12">
+      <c r="I4" s="24"/>
+      <c r="J4" s="24">
         <v>1.2639</v>
       </c>
-      <c r="K4" s="12"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="28">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
         <v>3</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="12">
+      <c r="B5" s="12"/>
+      <c r="C5" s="10">
         <f>2^18</f>
         <v>262144</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="10"/>
       <c r="E5" s="2">
         <v>0.67337999999999998</v>
       </c>
@@ -7857,25 +13316,28 @@
       <c r="G5" s="2">
         <v>0.81751700000000005</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="24">
         <v>1.2140500000000001</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12">
+      <c r="I5" s="24"/>
+      <c r="J5" s="24">
         <v>1.2221500000000001</v>
       </c>
-      <c r="K5" s="12"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="28">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
         <v>4</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="12">
+      <c r="B6" s="12"/>
+      <c r="C6" s="10">
         <f>2^19</f>
         <v>524288</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="10"/>
       <c r="E6" s="2">
         <v>1.7711300000000001</v>
       </c>
@@ -7885,25 +13347,28 @@
       <c r="G6" s="2">
         <v>2.0691299999999999</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="24">
         <v>1.16825</v>
       </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12">
+      <c r="I6" s="24"/>
+      <c r="J6" s="24">
         <v>1.2624</v>
       </c>
-      <c r="K6" s="12"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="28">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
         <v>5</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="12">
+      <c r="B7" s="12"/>
+      <c r="C7" s="10">
         <f>2^20</f>
         <v>1048576</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="10"/>
       <c r="E7" s="2">
         <v>3.4843099999999998</v>
       </c>
@@ -7913,25 +13378,28 @@
       <c r="G7" s="2">
         <v>4.3024699999999996</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="24">
         <v>1.23481</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12">
+      <c r="I7" s="24"/>
+      <c r="J7" s="24">
         <v>1.3871899999999999</v>
       </c>
-      <c r="K7" s="12"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="28">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
         <v>6</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="12">
+      <c r="B8" s="12"/>
+      <c r="C8" s="10">
         <f>2^21</f>
         <v>2097152</v>
       </c>
-      <c r="D8" s="12"/>
+      <c r="D8" s="10"/>
       <c r="E8" s="2">
         <v>7.00983</v>
       </c>
@@ -7941,25 +13409,28 @@
       <c r="G8" s="2">
         <v>9.0617900000000002</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="24">
         <v>1.2927299999999999</v>
       </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12">
+      <c r="I8" s="24"/>
+      <c r="J8" s="24">
         <v>1.40235</v>
       </c>
-      <c r="K8" s="12"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="28">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
         <v>7</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="12">
+      <c r="B9" s="12"/>
+      <c r="C9" s="10">
         <f>2^22</f>
         <v>4194304</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="D9" s="10"/>
       <c r="E9" s="2">
         <v>14.7439</v>
       </c>
@@ -7969,25 +13440,28 @@
       <c r="G9" s="2">
         <v>18.174800000000001</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="24">
         <v>1.23271</v>
       </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12">
+      <c r="I9" s="24"/>
+      <c r="J9" s="24">
         <v>1.3134300000000001</v>
       </c>
-      <c r="K9" s="12"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="28">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
         <v>8</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="12">
+      <c r="B10" s="12"/>
+      <c r="C10" s="10">
         <f>2^23</f>
         <v>8388608</v>
       </c>
-      <c r="D10" s="12"/>
+      <c r="D10" s="10"/>
       <c r="E10" s="2">
         <v>29.3093</v>
       </c>
@@ -7997,25 +13471,28 @@
       <c r="G10" s="2">
         <v>38.336500000000001</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="24">
         <v>1.3080000000000001</v>
       </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12">
+      <c r="I10" s="24"/>
+      <c r="J10" s="24">
         <v>1.33765</v>
       </c>
-      <c r="K10" s="12"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="28">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
         <v>9</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="12">
+      <c r="B11" s="12"/>
+      <c r="C11" s="10">
         <f>2^24</f>
         <v>16777216</v>
       </c>
-      <c r="D11" s="12"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="2">
         <v>62.461399999999998</v>
       </c>
@@ -8025,25 +13502,28 @@
       <c r="G11" s="2">
         <v>79.703299999999999</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="24">
         <v>1.2760400000000001</v>
       </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12">
+      <c r="I11" s="24"/>
+      <c r="J11" s="24">
         <v>1.29843</v>
       </c>
-      <c r="K11" s="12"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="28">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
         <v>10</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="12">
+      <c r="B12" s="12"/>
+      <c r="C12" s="10">
         <f>2^25</f>
         <v>33554432</v>
       </c>
-      <c r="D12" s="12"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="2">
         <v>141.31299999999999</v>
       </c>
@@ -8053,16 +13533,19 @@
       <c r="G12" s="2">
         <v>164.64099999999999</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="24">
         <v>1.1650799999999999</v>
       </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12">
+      <c r="I12" s="24"/>
+      <c r="J12" s="24">
         <v>1.21475</v>
       </c>
-      <c r="K12" s="12"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="28">
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -8076,7 +13559,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f>2^16</f>
         <v>65536</v>
@@ -8227,11 +13710,25 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="27">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:D2"/>
     <mergeCell ref="E1:E2"/>
@@ -8241,40 +13738,6 @@
     <mergeCell ref="J1:K2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8283,10 +13746,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27EC1D97-45B2-435F-963B-F079C09DCF46}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="J1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8294,56 +13757,56 @@
     <col min="5" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="12"/>
       <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="24" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="12" t="s">
         <v>11</v>
       </c>
       <c r="H1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="10"/>
+      <c r="I1" s="12"/>
       <c r="J1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="10"/>
+      <c r="K1" s="12"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="12">
+      <c r="B3" s="12"/>
+      <c r="C3" s="10">
         <f>2^16</f>
         <v>65536</v>
       </c>
-      <c r="D3" s="12"/>
+      <c r="D3" s="10"/>
       <c r="E3" s="2">
         <v>0.18904299999999999</v>
       </c>
@@ -8353,25 +13816,28 @@
       <c r="G3" s="2">
         <v>0.22786799999999999</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="24">
         <v>1.2053799999999999</v>
       </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12">
+      <c r="I3" s="24"/>
+      <c r="J3" s="24">
         <v>1.04419</v>
       </c>
-      <c r="K3" s="12"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="28">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
         <v>2</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="12">
+      <c r="B4" s="12"/>
+      <c r="C4" s="10">
         <f>2^17</f>
         <v>131072</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="10"/>
       <c r="E4" s="2">
         <v>0.35470499999999999</v>
       </c>
@@ -8381,25 +13847,28 @@
       <c r="G4" s="2">
         <v>0.44621</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="24">
         <v>1.2579800000000001</v>
       </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12">
+      <c r="I4" s="24"/>
+      <c r="J4" s="24">
         <v>1.15846</v>
       </c>
-      <c r="K4" s="12"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="28">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
         <v>3</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="12">
+      <c r="B5" s="12"/>
+      <c r="C5" s="10">
         <f>2^18</f>
         <v>262144</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="10"/>
       <c r="E5" s="2">
         <v>0.63279600000000003</v>
       </c>
@@ -8409,25 +13878,28 @@
       <c r="G5" s="2">
         <v>0.76324999999999998</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="24">
         <v>1.2061500000000001</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12">
+      <c r="I5" s="24"/>
+      <c r="J5" s="24">
         <v>1.2099500000000001</v>
       </c>
-      <c r="K5" s="12"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="28">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
         <v>4</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="12">
+      <c r="B6" s="12"/>
+      <c r="C6" s="10">
         <f>2^19</f>
         <v>524288</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="10"/>
       <c r="E6" s="2">
         <v>1.2338499999999999</v>
       </c>
@@ -8437,25 +13909,28 @@
       <c r="G6" s="2">
         <v>1.8831100000000001</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="24">
         <v>1.5262</v>
       </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12">
+      <c r="I6" s="24"/>
+      <c r="J6" s="24">
         <v>1.37927</v>
       </c>
-      <c r="K6" s="12"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="28">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
         <v>5</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="12">
+      <c r="B7" s="12"/>
+      <c r="C7" s="10">
         <f>2^20</f>
         <v>1048576</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="10"/>
       <c r="E7" s="2">
         <v>2.3755099999999998</v>
       </c>
@@ -8465,25 +13940,28 @@
       <c r="G7" s="2">
         <v>3.8762699999999999</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="24">
         <v>1.6317600000000001</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12">
+      <c r="I7" s="24"/>
+      <c r="J7" s="24">
         <v>1.4916199999999999</v>
       </c>
-      <c r="K7" s="12"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="28">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
         <v>6</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="12">
+      <c r="B8" s="12"/>
+      <c r="C8" s="10">
         <f>2^21</f>
         <v>2097152</v>
       </c>
-      <c r="D8" s="12"/>
+      <c r="D8" s="10"/>
       <c r="E8" s="2">
         <v>5.5917500000000002</v>
       </c>
@@ -8493,25 +13971,28 @@
       <c r="G8" s="2">
         <v>8.2584499999999998</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="24">
         <v>1.4769000000000001</v>
       </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12">
+      <c r="I8" s="24"/>
+      <c r="J8" s="24">
         <v>1.2944899999999999</v>
       </c>
-      <c r="K8" s="12"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="28">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
         <v>7</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="12">
+      <c r="B9" s="12"/>
+      <c r="C9" s="10">
         <f>2^22</f>
         <v>4194304</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="D9" s="10"/>
       <c r="E9" s="2">
         <v>10.5168</v>
       </c>
@@ -8521,25 +14002,28 @@
       <c r="G9" s="2">
         <v>17.1965</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="24">
         <v>1.6351500000000001</v>
       </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12">
+      <c r="I9" s="24"/>
+      <c r="J9" s="24">
         <v>1.34263</v>
       </c>
-      <c r="K9" s="12"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="28">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
         <v>8</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="12">
+      <c r="B10" s="12"/>
+      <c r="C10" s="10">
         <f>2^23</f>
         <v>8388608</v>
       </c>
-      <c r="D10" s="12"/>
+      <c r="D10" s="10"/>
       <c r="E10" s="2">
         <v>24.34</v>
       </c>
@@ -8549,25 +14033,28 @@
       <c r="G10" s="2">
         <v>35.829599999999999</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="24">
         <v>1.47204</v>
       </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12">
+      <c r="I10" s="24"/>
+      <c r="J10" s="24">
         <v>1.26037</v>
       </c>
-      <c r="K10" s="12"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="28">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
         <v>9</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="12">
+      <c r="B11" s="12"/>
+      <c r="C11" s="10">
         <f>2^24</f>
         <v>16777216</v>
       </c>
-      <c r="D11" s="12"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="2">
         <v>52.788899999999998</v>
       </c>
@@ -8577,25 +14064,28 @@
       <c r="G11" s="2">
         <v>72.044600000000003</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="24">
         <v>1.36477</v>
       </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12">
+      <c r="I11" s="24"/>
+      <c r="J11" s="24">
         <v>1.21773</v>
       </c>
-      <c r="K11" s="12"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="28">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
         <v>10</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="12">
+      <c r="B12" s="12"/>
+      <c r="C12" s="10">
         <f>2^25</f>
         <v>33554432</v>
       </c>
-      <c r="D12" s="12"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="2">
         <v>146.57300000000001</v>
       </c>
@@ -8605,19 +14095,22 @@
       <c r="G12" s="2">
         <v>189.30500000000001</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="24">
         <v>1.2915399999999999</v>
       </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12">
+      <c r="I12" s="24"/>
+      <c r="J12" s="24">
         <v>1.1714800000000001</v>
       </c>
-      <c r="K12" s="12"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="28">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -8632,7 +14125,7 @@
       </c>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f>2^16</f>
         <v>65536</v>
@@ -8783,11 +14276,25 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="27">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:D2"/>
     <mergeCell ref="E1:E2"/>
@@ -8797,40 +14304,6 @@
     <mergeCell ref="J1:K2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8839,10 +14312,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1063F5B5-CE0E-4740-ACB8-118ADF24D602}">
-  <dimension ref="A4:E14"/>
+  <dimension ref="A4:E53"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="V17" sqref="V17"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9044,6 +14517,203 @@
         <v>146.57300000000001</v>
       </c>
     </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <f>2^16</f>
+        <v>65536</v>
+      </c>
+      <c r="B44" s="24">
+        <v>1.1730799999999999</v>
+      </c>
+      <c r="C44" s="25">
+        <v>1.28932</v>
+      </c>
+      <c r="D44" s="24">
+        <v>1.19838</v>
+      </c>
+      <c r="E44" s="24">
+        <v>1.2053799999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <f>2^17</f>
+        <v>131072</v>
+      </c>
+      <c r="B45" s="24">
+        <v>1.3830499999999999</v>
+      </c>
+      <c r="C45" s="25">
+        <v>1.2984199999999999</v>
+      </c>
+      <c r="D45" s="24">
+        <v>1.2357800000000001</v>
+      </c>
+      <c r="E45" s="24">
+        <v>1.2579800000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <f>2^18</f>
+        <v>262144</v>
+      </c>
+      <c r="B46" s="24">
+        <v>1.21505</v>
+      </c>
+      <c r="C46" s="25">
+        <v>1.33511</v>
+      </c>
+      <c r="D46" s="24">
+        <v>1.2140500000000001</v>
+      </c>
+      <c r="E46" s="24">
+        <v>1.2061500000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <f>2^19</f>
+        <v>524288</v>
+      </c>
+      <c r="B47" s="24">
+        <v>1.2072700000000001</v>
+      </c>
+      <c r="C47" s="25">
+        <v>1.23356</v>
+      </c>
+      <c r="D47" s="24">
+        <v>1.16825</v>
+      </c>
+      <c r="E47" s="24">
+        <v>1.5262</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <f>2^20</f>
+        <v>1048576</v>
+      </c>
+      <c r="B48" s="24">
+        <v>1.3185800000000001</v>
+      </c>
+      <c r="C48" s="25">
+        <v>1.1863699999999999</v>
+      </c>
+      <c r="D48" s="24">
+        <v>1.23481</v>
+      </c>
+      <c r="E48" s="24">
+        <v>1.6317600000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <f>2^21</f>
+        <v>2097152</v>
+      </c>
+      <c r="B49" s="24">
+        <v>1.35039</v>
+      </c>
+      <c r="C49" s="25">
+        <v>1.3268800000000001</v>
+      </c>
+      <c r="D49" s="24">
+        <v>1.2927299999999999</v>
+      </c>
+      <c r="E49" s="24">
+        <v>1.4769000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <f>2^22</f>
+        <v>4194304</v>
+      </c>
+      <c r="B50" s="24">
+        <v>1.26088</v>
+      </c>
+      <c r="C50" s="25">
+        <v>1.1942699999999999</v>
+      </c>
+      <c r="D50" s="24">
+        <v>1.23271</v>
+      </c>
+      <c r="E50" s="24">
+        <v>1.6351500000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <f>2^23</f>
+        <v>8388608</v>
+      </c>
+      <c r="B51" s="24">
+        <v>1.2761800000000001</v>
+      </c>
+      <c r="C51" s="25">
+        <v>1.3193299999999999</v>
+      </c>
+      <c r="D51" s="24">
+        <v>1.3080000000000001</v>
+      </c>
+      <c r="E51" s="24">
+        <v>1.47204</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <f>2^24</f>
+        <v>16777216</v>
+      </c>
+      <c r="B52" s="24">
+        <v>1.20495</v>
+      </c>
+      <c r="C52" s="25">
+        <v>1.2786599999999999</v>
+      </c>
+      <c r="D52" s="24">
+        <v>1.2760400000000001</v>
+      </c>
+      <c r="E52" s="24">
+        <v>1.36477</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <f>2^25</f>
+        <v>33554432</v>
+      </c>
+      <c r="B53" s="24">
+        <v>1.2461100000000001</v>
+      </c>
+      <c r="C53" s="25">
+        <v>1.1906000000000001</v>
+      </c>
+      <c r="D53" s="24">
+        <v>1.1650799999999999</v>
+      </c>
+      <c r="E53" s="24">
+        <v>1.2915399999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
